--- a/excel_with_subclasses/with_count/street_with_count.xlsx
+++ b/excel_with_subclasses/with_count/street_with_count.xlsx
@@ -88,27 +88,27 @@
     <t>Q762042</t>
   </si>
   <si>
+    <t>Q56753514</t>
+  </si>
+  <si>
+    <t>Q10505824</t>
+  </si>
+  <si>
     <t>Q7069589</t>
   </si>
   <si>
-    <t>Q10505824</t>
-  </si>
-  <si>
-    <t>Q56753514</t>
-  </si>
-  <si>
     <t>Q29002287</t>
   </si>
   <si>
     <t>Q2312661</t>
   </si>
   <si>
+    <t>Q63676707</t>
+  </si>
+  <si>
     <t>Q790585</t>
   </si>
   <si>
-    <t>Q63676707</t>
-  </si>
-  <si>
     <t>Q85803433</t>
   </si>
   <si>
@@ -118,105 +118,105 @@
     <t>Q2327985</t>
   </si>
   <si>
+    <t>Q70093915</t>
+  </si>
+  <si>
+    <t>Q96288394</t>
+  </si>
+  <si>
+    <t>Q286907</t>
+  </si>
+  <si>
     <t>Q18419119</t>
   </si>
   <si>
-    <t>Q286907</t>
-  </si>
-  <si>
-    <t>Q70093915</t>
-  </si>
-  <si>
     <t>Q7834363</t>
   </si>
   <si>
-    <t>Q96288394</t>
-  </si>
-  <si>
     <t>Q11374982</t>
   </si>
   <si>
+    <t>Q1917434</t>
+  </si>
+  <si>
+    <t>Q1628979</t>
+  </si>
+  <si>
     <t>Q57244577</t>
   </si>
   <si>
-    <t>Q1628979</t>
+    <t>Q814289</t>
+  </si>
+  <si>
+    <t>Q20978687</t>
+  </si>
+  <si>
+    <t>Q2130039</t>
+  </si>
+  <si>
+    <t>Q921061</t>
   </si>
   <si>
     <t>Q10514513</t>
   </si>
   <si>
-    <t>Q921061</t>
-  </si>
-  <si>
-    <t>Q2130039</t>
-  </si>
-  <si>
-    <t>Q20978687</t>
-  </si>
-  <si>
-    <t>Q1917434</t>
-  </si>
-  <si>
-    <t>Q814289</t>
+    <t>Q84481592</t>
+  </si>
+  <si>
+    <t>Q771137</t>
+  </si>
+  <si>
+    <t>Q11484368</t>
+  </si>
+  <si>
+    <t>Q8034016</t>
+  </si>
+  <si>
+    <t>Q798562</t>
   </si>
   <si>
     <t>Q1308100</t>
   </si>
   <si>
-    <t>Q798562</t>
-  </si>
-  <si>
-    <t>Q8034016</t>
+    <t>Q1035793</t>
+  </si>
+  <si>
+    <t>Q15854949</t>
+  </si>
+  <si>
+    <t>Q13586524</t>
+  </si>
+  <si>
+    <t>Q745716</t>
+  </si>
+  <si>
+    <t>Q1543046</t>
+  </si>
+  <si>
+    <t>Q1606363</t>
+  </si>
+  <si>
+    <t>Q1664068</t>
+  </si>
+  <si>
+    <t>Q19257336</t>
+  </si>
+  <si>
+    <t>Q52225662</t>
+  </si>
+  <si>
+    <t>Q4474741</t>
+  </si>
+  <si>
+    <t>Q4471634</t>
+  </si>
+  <si>
+    <t>Q21684023</t>
   </si>
   <si>
     <t>Q3101624</t>
   </si>
   <si>
-    <t>Q84481592</t>
-  </si>
-  <si>
-    <t>Q771137</t>
-  </si>
-  <si>
-    <t>Q11484368</t>
-  </si>
-  <si>
-    <t>Q13586524</t>
-  </si>
-  <si>
-    <t>Q15854949</t>
-  </si>
-  <si>
-    <t>Q1543046</t>
-  </si>
-  <si>
-    <t>Q745716</t>
-  </si>
-  <si>
-    <t>Q4471634</t>
-  </si>
-  <si>
-    <t>Q1606363</t>
-  </si>
-  <si>
-    <t>Q1664068</t>
-  </si>
-  <si>
-    <t>Q19257336</t>
-  </si>
-  <si>
-    <t>Q52225662</t>
-  </si>
-  <si>
-    <t>Q21684023</t>
-  </si>
-  <si>
-    <t>Q1035793</t>
-  </si>
-  <si>
-    <t>Q4474741</t>
-  </si>
-  <si>
     <t>Q2933442</t>
   </si>
   <si>
@@ -280,27 +280,27 @@
     <t>vennel</t>
   </si>
   <si>
+    <t>Rambla</t>
+  </si>
+  <si>
+    <t>насыпь</t>
+  </si>
+  <si>
     <t>numbered street</t>
   </si>
   <si>
-    <t>насыпь</t>
-  </si>
-  <si>
-    <t>Rambla</t>
-  </si>
-  <si>
     <t>travesía</t>
   </si>
   <si>
     <t>dead end alley</t>
   </si>
   <si>
+    <t>seafront</t>
+  </si>
+  <si>
     <t>Avenue of honour</t>
   </si>
   <si>
-    <t>seafront</t>
-  </si>
-  <si>
     <t>step street</t>
   </si>
   <si>
@@ -310,99 +310,99 @@
     <t>Stadtring</t>
   </si>
   <si>
+    <t>one-way street</t>
+  </si>
+  <si>
+    <t>shōtengai</t>
+  </si>
+  <si>
+    <t>ABC street</t>
+  </si>
+  <si>
     <t>костанилья</t>
   </si>
   <si>
-    <t>ABC street</t>
-  </si>
-  <si>
-    <t>one-way street</t>
-  </si>
-  <si>
     <t>transit mall</t>
   </si>
   <si>
-    <t>shōtengai</t>
-  </si>
-  <si>
     <t>Streets in Kyoto City</t>
   </si>
   <si>
+    <t>Multilevel streets in Chicago</t>
+  </si>
+  <si>
     <t>жилая зона</t>
   </si>
   <si>
+    <t>Residential area road signs</t>
+  </si>
+  <si>
+    <t>ring road</t>
+  </si>
+  <si>
+    <t>Book town</t>
+  </si>
+  <si>
     <t>Дороги Шу</t>
   </si>
   <si>
-    <t>Book town</t>
-  </si>
-  <si>
-    <t>ring road</t>
-  </si>
-  <si>
-    <t>Multilevel streets in Chicago</t>
-  </si>
-  <si>
-    <t>Residential area road signs</t>
+    <t>корсо</t>
+  </si>
+  <si>
+    <t>Kehä III</t>
+  </si>
+  <si>
+    <t>Hirokōji</t>
+  </si>
+  <si>
+    <t>woonerf</t>
+  </si>
+  <si>
+    <t>Turku Ring Road</t>
   </si>
   <si>
     <t>High Street</t>
   </si>
   <si>
-    <t>Turku Ring Road</t>
-  </si>
-  <si>
-    <t>woonerf</t>
+    <t>Кардо</t>
+  </si>
+  <si>
+    <t>living street</t>
+  </si>
+  <si>
+    <t>urban ringroads in Spain</t>
+  </si>
+  <si>
+    <t>Ring II</t>
+  </si>
+  <si>
+    <t>Парижские бульвары</t>
+  </si>
+  <si>
+    <t>plateia</t>
+  </si>
+  <si>
+    <t>Místní komunikace</t>
+  </si>
+  <si>
+    <t>Ravals de Reus</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>Улицы Тольятти</t>
+  </si>
+  <si>
+    <t>Улица Вересаева</t>
+  </si>
+  <si>
+    <t>Улицы Барнаула</t>
   </si>
   <si>
     <t>Kehä I</t>
   </si>
   <si>
-    <t>корсо</t>
-  </si>
-  <si>
-    <t>Kehä III</t>
-  </si>
-  <si>
-    <t>Hirokōji</t>
-  </si>
-  <si>
-    <t>urban ringroads in Spain</t>
-  </si>
-  <si>
-    <t>living street</t>
-  </si>
-  <si>
-    <t>Парижские бульвары</t>
-  </si>
-  <si>
-    <t>Ring II</t>
-  </si>
-  <si>
-    <t>Улица Вересаева</t>
-  </si>
-  <si>
-    <t>plateia</t>
-  </si>
-  <si>
-    <t>Místní komunikace</t>
-  </si>
-  <si>
-    <t>Ravals de Reus</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>Улицы Барнаула</t>
-  </si>
-  <si>
-    <t>Кардо</t>
-  </si>
-  <si>
-    <t>Улицы Тольятти</t>
-  </si>
-  <si>
     <t>calade</t>
   </si>
   <si>
@@ -418,10 +418,10 @@
     <t>Q12731_тупик,Q1251403_проезд</t>
   </si>
   <si>
+    <t>Q79007_улица,Q88372_Эспланада</t>
+  </si>
+  <si>
     <t>Q207934_аллея</t>
-  </si>
-  <si>
-    <t>Q79007_улица,Q88372_Эспланада</t>
   </si>
   <si>
     <t>Q21000333_shopping street</t>
@@ -1253,7 +1253,7 @@
         <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1284,7 +1284,7 @@
         <v>130</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1295,7 +1295,7 @@
         <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1320,10 +1320,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
         <v>130</v>
@@ -1348,10 +1348,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1376,10 +1376,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1390,10 +1390,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1407,7 +1407,7 @@
         <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D64">
         <v>0</v>
